--- a/applications/web/demo/data/sources/user_information_source.xlsx
+++ b/applications/web/demo/data/sources/user_information_source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosabjo\PycharmProjects\python-automation-framework\applications\web\demo\data\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9BC348-D832-4E2E-9CAB-196750EF41C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7543AD2A-3F06-493B-A706-2DD1E11A80F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33255" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{9291EBD9-5657-4BEF-8012-AB611F107A95}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9291EBD9-5657-4BEF-8012-AB611F107A95}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
@@ -36,48 +36,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>jrosabal</t>
-  </si>
-  <si>
-    <t>jrosabal@test.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>admin</t>
   </si>
   <si>
-    <t>joedoe</t>
-  </si>
-  <si>
-    <t>jdoe@test.com</t>
-  </si>
-  <si>
     <t>tester</t>
   </si>
   <si>
-    <t>dhidalgo</t>
-  </si>
-  <si>
-    <t>dhidalgo@test.com</t>
-  </si>
-  <si>
     <t>salesperson</t>
   </si>
   <si>
-    <t>User Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Type of User</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>Example</t>
+    <t>username</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>typeOfUser</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>user1@excel.com</t>
+  </si>
+  <si>
+    <t>user2@excel.com</t>
+  </si>
+  <si>
+    <t>user3@excel.com</t>
   </si>
 </sst>
 </file>
@@ -460,9 +457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC72ED6-B482-44CB-89F4-E9BCF7579515}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -472,72 +471,60 @@
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
